--- a/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ASSESSOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB755215-5BCB-4A26-985E-69BFA41B4D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3C51D-B3AB-41C5-BB6A-CA4B5CE3DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="564">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1805,6 +1797,15 @@
   </si>
   <si>
     <t>7/11-14/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>2/21-24, 27-28</t>
   </si>
 </sst>
 </file>
@@ -2844,9 +2845,9 @@
   <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A642" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A648" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="K655" sqref="K655"/>
+      <selection pane="bottomLeft" activeCell="D658" sqref="D658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,7 +3014,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>153.17190000000005</v>
+        <v>148.42190000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3023,7 +3024,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.86800000000005</v>
+        <v>234.11800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17233,7 +17234,9 @@
       <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A656" s="40"/>
+      <c r="A656" s="48" t="s">
+        <v>561</v>
+      </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
       <c r="D656" s="39"/>
@@ -17249,15 +17252,19 @@
       <c r="K656" s="20"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A657" s="40"/>
+      <c r="A657" s="40">
+        <v>44927</v>
+      </c>
       <c r="B657" s="20"/>
-      <c r="C657" s="13"/>
+      <c r="C657" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G657" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
@@ -17265,10 +17272,16 @@
       <c r="K657" s="20"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A658" s="40"/>
-      <c r="B658" s="20"/>
+      <c r="A658" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B658" s="20" t="s">
+        <v>562</v>
+      </c>
       <c r="C658" s="13"/>
-      <c r="D658" s="39"/>
+      <c r="D658" s="39">
+        <v>6</v>
+      </c>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
       <c r="G658" s="42" t="str">
@@ -17278,7 +17291,9 @@
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20"/>
+      <c r="K658" s="20" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>

--- a/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ASSESSOR/ANGCAYA OFELIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4405DF5-0B03-44C4-97B8-EEB4F3CE9269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="565">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1807,11 +1806,14 @@
   <si>
     <t>UT(0-1-26)</t>
   </si>
+  <si>
+    <t>10/31 , 11/3,6/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2498,7 +2500,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2515,26 +2517,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K718" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K718" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K718" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K718"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2841,34 +2843,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A650"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A680" activePane="bottomLeft"/>
       <selection activeCell="O15" sqref="O15"/>
-      <selection pane="bottomLeft" activeCell="F649" sqref="F649"/>
+      <selection pane="bottomLeft" activeCell="H688" sqref="H688"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2893,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2915,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2943,7 +2945,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2956,7 +2958,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -2973,7 +2975,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3017,7 +3019,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.21089999999998</v>
+        <v>165.33589999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3027,12 +3029,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>265.74300000000005</v>
+        <v>261.86800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>552</v>
       </c>
@@ -3057,7 +3059,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -3075,7 +3077,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -3095,7 +3097,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34366</v>
       </c>
@@ -3115,7 +3117,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34394</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34425</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>34455</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3215,7 +3217,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34486</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>34613</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34516</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>34614</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34547</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34578</v>
       </c>
@@ -3317,7 +3319,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -3337,7 +3339,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34608</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34639</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34669</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>65</v>
       </c>
@@ -3431,7 +3433,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34700</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
@@ -3475,7 +3477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>67</v>
@@ -3499,7 +3501,7 @@
         <v>34851</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34731</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>70</v>
@@ -3547,7 +3549,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>74</v>
@@ -3595,7 +3597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34790</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -3643,7 +3645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34820</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>80</v>
@@ -3689,7 +3691,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>82</v>
@@ -3711,7 +3713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34851</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>67</v>
@@ -3757,7 +3759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34881</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>67</v>
@@ -3803,7 +3805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34912</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>34980</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>88</v>
@@ -3849,7 +3851,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -3871,7 +3873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34943</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34973</v>
       </c>
@@ -3917,7 +3919,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35004</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -3965,7 +3967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35034</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>34831</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>95</v>
@@ -4011,7 +4013,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>61</v>
@@ -4033,7 +4035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>97</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35065</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>61</v>
@@ -4099,7 +4101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35096</v>
       </c>
@@ -4119,7 +4121,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35125</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -4167,7 +4169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35156</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35186</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -4231,7 +4233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4251,7 +4253,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35217</v>
       </c>
@@ -4275,7 +4277,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35247</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35278</v>
       </c>
@@ -4321,7 +4323,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35309</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35339</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35370</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>112</v>
@@ -4419,7 +4421,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>35400</v>
       </c>
@@ -4443,7 +4445,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>82</v>
@@ -4465,7 +4467,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>115</v>
       </c>
@@ -4483,7 +4485,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35431</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -4529,7 +4531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>104</v>
@@ -4549,7 +4551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35462</v>
       </c>
@@ -4575,7 +4577,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35490</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35521</v>
       </c>
@@ -4621,7 +4623,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35551</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>67</v>
@@ -4669,7 +4671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>120</v>
@@ -4691,7 +4693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35582</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35612</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35643</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>126</v>
@@ -4789,7 +4791,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35674</v>
       </c>
@@ -4809,7 +4811,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>35704</v>
       </c>
@@ -4833,7 +4835,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>35735</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>129</v>
@@ -4879,7 +4881,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35765</v>
       </c>
@@ -4901,7 +4903,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>132</v>
@@ -4923,7 +4925,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>133</v>
       </c>
@@ -4941,7 +4943,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35796</v>
       </c>
@@ -4961,7 +4963,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>35827</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35855</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35886</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35916</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>120</v>
@@ -5082,7 +5084,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>35947</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>35860</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>35977</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5154,7 +5156,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36008</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>88</v>
@@ -5202,7 +5204,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36039</v>
       </c>
@@ -5220,7 +5222,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36069</v>
       </c>
@@ -5244,7 +5246,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36100</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36130</v>
       </c>
@@ -5294,7 +5296,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>132</v>
@@ -5314,7 +5316,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>142</v>
       </c>
@@ -5332,7 +5334,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36161</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36192</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36220</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>67</v>
@@ -5430,7 +5432,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36251</v>
       </c>
@@ -5456,7 +5458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36281</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>150</v>
@@ -5502,7 +5504,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>36312</v>
       </c>
@@ -5526,7 +5528,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36342</v>
       </c>
@@ -5550,7 +5552,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>36373</v>
       </c>
@@ -5574,7 +5576,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36404</v>
       </c>
@@ -5598,7 +5600,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36434</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>36474</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>112</v>
@@ -5646,7 +5648,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36465</v>
       </c>
@@ -5670,7 +5672,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>104</v>
@@ -5690,7 +5692,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>36495</v>
       </c>
@@ -5714,7 +5716,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>158</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36526</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>36557</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36586</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>67</v>
@@ -5834,7 +5836,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>36617</v>
       </c>
@@ -5856,7 +5858,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36647</v>
       </c>
@@ -5878,7 +5880,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>36678</v>
       </c>
@@ -5898,7 +5900,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36708</v>
       </c>
@@ -5918,7 +5920,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>36739</v>
       </c>
@@ -5938,7 +5940,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>36770</v>
       </c>
@@ -5958,7 +5960,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>36800</v>
       </c>
@@ -5980,7 +5982,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>36831</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>36861</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>36719</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>164</v>
       </c>
@@ -6048,7 +6050,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36892</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>36923</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>148</v>
@@ -6118,7 +6120,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>36951</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>37014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>112</v>
@@ -6166,7 +6168,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>77</v>
@@ -6188,7 +6190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>36982</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="15" t="s">
         <v>169</v>
@@ -6234,7 +6236,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37012</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37043</v>
       </c>
@@ -6280,7 +6282,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37073</v>
       </c>
@@ -6300,7 +6302,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37104</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>82</v>
@@ -6348,7 +6350,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37135</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>174</v>
@@ -6396,7 +6398,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37165</v>
       </c>
@@ -6420,7 +6422,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>104</v>
@@ -6440,7 +6442,7 @@
         <v>36933</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37196</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>176</v>
@@ -6486,7 +6488,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37226</v>
       </c>
@@ -6510,7 +6512,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="51" t="s">
         <v>178</v>
       </c>
@@ -6528,7 +6530,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37257</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -6578,7 +6580,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -6602,7 +6604,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>379</v>
@@ -6648,7 +6650,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -6674,7 +6676,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -6696,7 +6698,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -6716,7 +6718,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="15" t="s">
         <v>409</v>
@@ -6762,7 +6764,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>37469</v>
       </c>
@@ -6786,7 +6788,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37500</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>148</v>
@@ -6832,7 +6834,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>104</v>
@@ -6852,7 +6854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37530</v>
       </c>
@@ -6876,7 +6878,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="15" t="s">
         <v>77</v>
@@ -6922,7 +6924,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37591</v>
       </c>
@@ -6942,7 +6944,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>189</v>
       </c>
@@ -6962,7 +6964,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37622</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37653</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37681</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <v>37712</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37742</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37773</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>82</v>
@@ -7132,7 +7134,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>181</v>
@@ -7152,7 +7154,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>37803</v>
       </c>
@@ -7172,7 +7174,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37834</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37865</v>
       </c>
@@ -7224,7 +7226,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>67</v>
@@ -7246,7 +7248,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>77</v>
@@ -7266,7 +7268,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37895</v>
       </c>
@@ -7292,7 +7294,7 @@
         <v>37874</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37926</v>
       </c>
@@ -7316,7 +7318,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37956</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>67</v>
@@ -7364,7 +7366,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>67</v>
@@ -7386,7 +7388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="15" t="s">
         <v>197</v>
@@ -7406,7 +7408,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>201</v>
       </c>
@@ -7424,7 +7426,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -7448,7 +7450,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38018</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>202</v>
@@ -7494,7 +7496,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>61</v>
@@ -7518,7 +7520,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -7538,7 +7540,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="15" t="s">
         <v>206</v>
@@ -7556,7 +7558,7 @@
       <c r="J206" s="12"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38078</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38108</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>67</v>
@@ -7630,7 +7632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>67</v>
@@ -7650,7 +7652,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>208</v>
@@ -7670,7 +7672,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38139</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>38141</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>558</v>
@@ -7716,7 +7718,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38169</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38200</v>
       </c>
@@ -7768,7 +7770,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>67</v>
@@ -7790,7 +7792,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>212</v>
@@ -7812,7 +7814,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38231</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>215</v>
@@ -7858,7 +7860,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
         <v>38261</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>217</v>
@@ -7904,7 +7906,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>38292</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>218</v>
@@ -7950,7 +7952,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>38322</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>219</v>
@@ -7996,7 +7998,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="51" t="s">
         <v>221</v>
       </c>
@@ -8014,7 +8016,7 @@
       <c r="J226" s="12"/>
       <c r="K226" s="15"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>38353</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>104</v>
@@ -8060,7 +8062,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>225</v>
@@ -8080,7 +8082,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38384</v>
       </c>
@@ -8104,7 +8106,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38412</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -8152,7 +8154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>226</v>
@@ -8172,7 +8174,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38443</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>67</v>
@@ -8218,7 +8220,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>228</v>
@@ -8236,7 +8238,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <v>38473</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>230</v>
@@ -8282,7 +8284,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39600</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>409</v>
@@ -8326,7 +8328,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>231</v>
@@ -8346,7 +8348,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>38534</v>
       </c>
@@ -8372,7 +8374,7 @@
         <v>38479</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>67</v>
@@ -8394,7 +8396,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>234</v>
@@ -8414,7 +8416,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38565</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>222</v>
@@ -8462,7 +8464,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>236</v>
@@ -8482,7 +8484,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>38596</v>
       </c>
@@ -8508,7 +8510,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>238</v>
@@ -8530,7 +8532,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>239</v>
@@ -8552,7 +8554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>243</v>
@@ -8572,7 +8574,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>61</v>
@@ -8594,7 +8596,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>104</v>
@@ -8614,7 +8616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38626</v>
       </c>
@@ -8638,7 +8640,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>38657</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>409</v>
@@ -8686,7 +8688,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>217</v>
@@ -8706,7 +8708,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>38687</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>67</v>
@@ -8754,7 +8756,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>67</v>
@@ -8776,7 +8778,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>249</v>
@@ -8796,7 +8798,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>253</v>
       </c>
@@ -8814,7 +8816,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41">
         <v>38718</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>67</v>
@@ -8860,7 +8862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>104</v>
@@ -8880,7 +8882,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>104</v>
@@ -8898,7 +8900,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>254</v>
@@ -8918,7 +8920,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>38749</v>
       </c>
@@ -8942,7 +8944,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>38777</v>
       </c>
@@ -8966,7 +8968,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>38808</v>
       </c>
@@ -8990,7 +8992,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>260</v>
@@ -9012,7 +9014,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>409</v>
@@ -9034,7 +9036,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>38838</v>
       </c>
@@ -9058,7 +9060,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="41">
         <v>38869</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>264</v>
@@ -9104,7 +9106,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>230</v>
@@ -9124,7 +9126,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>409</v>
@@ -9146,7 +9148,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>409</v>
@@ -9168,7 +9170,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>231</v>
@@ -9186,7 +9188,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>38899</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>67</v>
@@ -9234,7 +9236,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>234</v>
@@ -9252,7 +9254,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>38930</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>270</v>
@@ -9298,7 +9300,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>38961</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>271</v>
@@ -9344,7 +9346,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="41">
         <v>38991</v>
       </c>
@@ -9368,7 +9370,7 @@
       <c r="J287" s="12"/>
       <c r="K287" s="15"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>39022</v>
       </c>
@@ -9394,7 +9396,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>274</v>
@@ -9414,7 +9416,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39052</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>38941</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>82</v>
@@ -9462,7 +9464,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="41"/>
       <c r="B292" s="15" t="s">
         <v>276</v>
@@ -9480,7 +9482,7 @@
       <c r="J292" s="12"/>
       <c r="K292" s="15"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>278</v>
       </c>
@@ -9498,7 +9500,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39083</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>279</v>
@@ -9542,7 +9544,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>280</v>
@@ -9562,7 +9564,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="15"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39114</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>67</v>
@@ -9610,7 +9612,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>283</v>
@@ -9630,7 +9632,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>39142</v>
       </c>
@@ -9654,7 +9656,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>39173</v>
       </c>
@@ -9678,7 +9680,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39203</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>61</v>
@@ -9726,7 +9728,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>289</v>
@@ -9746,7 +9748,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>39234</v>
       </c>
@@ -9770,7 +9772,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39264</v>
       </c>
@@ -9794,7 +9796,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39295</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>294</v>
@@ -9840,7 +9842,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39326</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>296</v>
@@ -9886,7 +9888,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39356</v>
       </c>
@@ -9910,7 +9912,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>39387</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>67</v>
@@ -9958,7 +9960,7 @@
         <v>39184</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>299</v>
@@ -9978,7 +9980,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39417</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>300</v>
@@ -10024,7 +10026,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>302</v>
       </c>
@@ -10042,7 +10044,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39448</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>104</v>
@@ -10088,7 +10090,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>303</v>
@@ -10106,7 +10108,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="41">
         <v>39479</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>307</v>
@@ -10152,7 +10154,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39508</v>
       </c>
@@ -10174,7 +10176,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>288</v>
@@ -10196,7 +10198,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>308</v>
@@ -10218,7 +10220,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>39539</v>
       </c>
@@ -10244,7 +10246,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>104</v>
@@ -10264,7 +10266,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>311</v>
@@ -10284,7 +10286,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39569</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41"/>
       <c r="B330" s="15" t="s">
         <v>313</v>
@@ -10330,7 +10332,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39600</v>
       </c>
@@ -10354,7 +10356,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>39630</v>
       </c>
@@ -10380,7 +10382,7 @@
         <v>39485</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>67</v>
@@ -10402,7 +10404,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>316</v>
@@ -10422,7 +10424,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>39661</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>317</v>
@@ -10468,7 +10470,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39692</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>67</v>
@@ -10518,7 +10520,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41"/>
       <c r="B339" s="15" t="s">
         <v>319</v>
@@ -10536,7 +10538,7 @@
       <c r="J339" s="12"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>39722</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>322</v>
@@ -10582,7 +10584,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>39753</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>239</v>
@@ -10630,7 +10632,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>324</v>
@@ -10650,7 +10652,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>39783</v>
       </c>
@@ -10676,7 +10678,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>327</v>
@@ -10696,7 +10698,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="48" t="s">
         <v>329</v>
       </c>
@@ -10714,7 +10716,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>39814</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>239</v>
@@ -10762,7 +10764,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>104</v>
@@ -10782,7 +10784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41"/>
       <c r="B351" s="15" t="s">
         <v>330</v>
@@ -10802,7 +10804,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39845</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>104</v>
@@ -10848,7 +10850,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>174</v>
@@ -10868,7 +10870,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>39873</v>
       </c>
@@ -10892,7 +10894,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>39904</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>338</v>
@@ -10938,7 +10940,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="41">
         <v>39934</v>
       </c>
@@ -10964,7 +10966,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>337</v>
@@ -10986,7 +10988,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>340</v>
@@ -11006,7 +11008,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>39965</v>
       </c>
@@ -11032,7 +11034,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>104</v>
@@ -11052,7 +11054,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>343</v>
@@ -11072,7 +11074,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>39995</v>
       </c>
@@ -11098,7 +11100,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>206</v>
@@ -11118,7 +11120,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40026</v>
       </c>
@@ -11142,7 +11144,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="41">
         <v>40057</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>345</v>
@@ -11188,7 +11190,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>40087</v>
       </c>
@@ -11212,7 +11214,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40118</v>
       </c>
@@ -11236,7 +11238,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>347</v>
@@ -11258,7 +11260,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="41">
         <v>40148</v>
       </c>
@@ -11282,7 +11284,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>131</v>
@@ -11304,7 +11306,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>349</v>
@@ -11326,7 +11328,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>352</v>
       </c>
@@ -11344,7 +11346,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40179</v>
       </c>
@@ -11368,7 +11370,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>353</v>
@@ -11388,7 +11390,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="41">
         <v>40210</v>
       </c>
@@ -11412,7 +11414,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40238</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>356</v>
@@ -11458,7 +11460,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40269</v>
       </c>
@@ -11484,7 +11486,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>67</v>
@@ -11506,7 +11508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>67</v>
@@ -11528,7 +11530,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>359</v>
@@ -11548,7 +11550,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40303</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>67</v>
@@ -11593,7 +11595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>360</v>
@@ -11610,7 +11612,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40334</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>361</v>
@@ -11653,7 +11655,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40364</v>
       </c>
@@ -11677,7 +11679,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>40395</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>363</v>
@@ -11720,7 +11722,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40426</v>
       </c>
@@ -11746,7 +11748,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>365</v>
@@ -11763,7 +11765,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>40456</v>
       </c>
@@ -11787,7 +11789,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>40487</v>
       </c>
@@ -11815,7 +11817,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>368</v>
@@ -11834,7 +11836,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>152</v>
@@ -11853,7 +11855,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40517</v>
       </c>
@@ -11877,7 +11879,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="48" t="s">
         <v>376</v>
       </c>
@@ -11895,7 +11897,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>40544</v>
       </c>
@@ -11919,7 +11921,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40575</v>
       </c>
@@ -11943,7 +11945,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40603</v>
       </c>
@@ -11967,7 +11969,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>380</v>
@@ -11984,7 +11986,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>40634</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>381</v>
@@ -12027,7 +12029,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>40664</v>
       </c>
@@ -12053,7 +12055,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>362</v>
@@ -12072,7 +12074,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>382</v>
@@ -12089,7 +12091,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>40695</v>
       </c>
@@ -12115,7 +12117,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>390</v>
@@ -12134,7 +12136,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>383</v>
@@ -12151,7 +12153,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>40725</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>384</v>
@@ -12194,7 +12196,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>40756</v>
       </c>
@@ -12218,7 +12220,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>40787</v>
       </c>
@@ -12244,7 +12246,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>386</v>
@@ -12261,7 +12263,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>40817</v>
       </c>
@@ -12285,7 +12287,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>40848</v>
       </c>
@@ -12309,7 +12311,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="15" t="s">
         <v>379</v>
@@ -12329,7 +12331,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="15" t="s">
         <v>364</v>
@@ -12351,7 +12353,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="15" t="s">
         <v>388</v>
@@ -12371,7 +12373,7 @@
       <c r="J422" s="12"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="15" t="s">
         <v>362</v>
@@ -12393,7 +12395,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>40878</v>
       </c>
@@ -12419,7 +12421,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>176</v>
@@ -12439,7 +12441,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="48" t="s">
         <v>401</v>
       </c>
@@ -12457,7 +12459,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>40909</v>
       </c>
@@ -12479,7 +12481,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>402</v>
@@ -12499,7 +12501,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>40940</v>
       </c>
@@ -12523,7 +12525,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>40969</v>
       </c>
@@ -12547,7 +12549,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41000</v>
       </c>
@@ -12571,7 +12573,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41030</v>
       </c>
@@ -12595,7 +12597,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41061</v>
       </c>
@@ -12619,7 +12621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>362</v>
@@ -12641,7 +12643,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>405</v>
@@ -12661,7 +12663,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>41091</v>
       </c>
@@ -12685,7 +12687,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41122</v>
       </c>
@@ -12711,7 +12713,7 @@
         <v>41190</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>407</v>
@@ -12731,7 +12733,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41153</v>
       </c>
@@ -12757,7 +12759,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>408</v>
@@ -12777,7 +12779,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41183</v>
       </c>
@@ -12803,7 +12805,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>379</v>
@@ -12823,7 +12825,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>362</v>
@@ -12845,7 +12847,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>410</v>
@@ -12865,7 +12867,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>41214</v>
       </c>
@@ -12891,7 +12893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>415</v>
@@ -12910,7 +12912,7 @@
         <v>41225</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>415</v>
@@ -12929,7 +12931,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>416</v>
@@ -12946,7 +12948,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41244</v>
       </c>
@@ -12970,7 +12972,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="48" t="s">
         <v>420</v>
       </c>
@@ -12988,7 +12990,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41275</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>379</v>
@@ -13029,7 +13031,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>421</v>
@@ -13046,7 +13048,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41306</v>
       </c>
@@ -13072,7 +13074,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>421</v>
@@ -13089,7 +13091,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>41334</v>
       </c>
@@ -13115,7 +13117,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>422</v>
@@ -13132,7 +13134,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41365</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>368</v>
@@ -13177,7 +13179,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>423</v>
@@ -13194,7 +13196,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41395</v>
       </c>
@@ -13218,7 +13220,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>41426</v>
       </c>
@@ -13242,7 +13244,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>41456</v>
       </c>
@@ -13262,7 +13264,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41487</v>
       </c>
@@ -13288,7 +13290,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>369</v>
@@ -13305,7 +13307,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="49"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41518</v>
       </c>
@@ -13331,7 +13333,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>430</v>
@@ -13350,7 +13352,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>432</v>
@@ -13367,7 +13369,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41548</v>
       </c>
@@ -13391,7 +13393,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>41579</v>
       </c>
@@ -13413,7 +13415,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>433</v>
@@ -13430,7 +13432,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41609</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>362</v>
@@ -13478,7 +13480,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>434</v>
@@ -13498,7 +13500,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
         <v>437</v>
       </c>
@@ -13516,7 +13518,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>41640</v>
       </c>
@@ -13540,7 +13542,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>41671</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>438</v>
@@ -13583,7 +13585,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>41699</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>439</v>
@@ -13626,7 +13628,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41730</v>
       </c>
@@ -13650,7 +13652,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41760</v>
       </c>
@@ -13676,7 +13678,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>441</v>
@@ -13693,7 +13695,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>41791</v>
       </c>
@@ -13719,7 +13721,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>362</v>
@@ -13736,7 +13738,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>446</v>
@@ -13753,7 +13755,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>41821</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>362</v>
@@ -13794,7 +13796,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>77</v>
@@ -13811,7 +13813,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>41852</v>
       </c>
@@ -13837,7 +13839,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>365</v>
@@ -13854,7 +13856,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>41883</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>367</v>
@@ -13895,7 +13897,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>449</v>
@@ -13912,7 +13914,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>41913</v>
       </c>
@@ -13936,7 +13938,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>41944</v>
       </c>
@@ -13960,7 +13962,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>367</v>
@@ -13977,7 +13979,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>447</v>
@@ -13994,7 +13996,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>41974</v>
       </c>
@@ -14018,7 +14020,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>458</v>
       </c>
@@ -14036,7 +14038,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42005</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>415</v>
@@ -14079,7 +14081,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>362</v>
@@ -14098,7 +14100,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>459</v>
@@ -14115,7 +14117,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42036</v>
       </c>
@@ -14139,7 +14141,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42064</v>
       </c>
@@ -14163,7 +14165,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>42095</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>563</v>
@@ -14206,7 +14208,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42125</v>
       </c>
@@ -14232,7 +14234,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>190</v>
@@ -14249,7 +14251,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42156</v>
       </c>
@@ -14273,7 +14275,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>42186</v>
       </c>
@@ -14299,7 +14301,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>464</v>
@@ -14316,7 +14318,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42217</v>
       </c>
@@ -14342,7 +14344,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>179</v>
@@ -14359,7 +14361,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42248</v>
       </c>
@@ -14383,7 +14385,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>465</v>
@@ -14402,7 +14404,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>362</v>
@@ -14421,7 +14423,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>466</v>
@@ -14438,7 +14440,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42278</v>
       </c>
@@ -14464,7 +14466,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>179</v>
@@ -14481,7 +14483,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42309</v>
       </c>
@@ -14507,7 +14509,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>362</v>
@@ -14526,7 +14528,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>104</v>
@@ -14543,7 +14545,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>367</v>
@@ -14562,7 +14564,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>362</v>
@@ -14579,7 +14581,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>218</v>
@@ -14596,7 +14598,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>42339</v>
       </c>
@@ -14620,7 +14622,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="48" t="s">
         <v>474</v>
       </c>
@@ -14638,7 +14640,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42370</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>480</v>
@@ -14679,7 +14681,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42401</v>
       </c>
@@ -14705,7 +14707,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>283</v>
@@ -14722,7 +14724,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42430</v>
       </c>
@@ -14746,7 +14748,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42461</v>
       </c>
@@ -14770,7 +14772,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42491</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>432</v>
@@ -14813,7 +14815,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42522</v>
       </c>
@@ -14839,7 +14841,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>483</v>
@@ -14856,7 +14858,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>42552</v>
       </c>
@@ -14880,7 +14882,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42583</v>
       </c>
@@ -14906,7 +14908,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>362</v>
@@ -14925,7 +14927,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>485</v>
@@ -14942,7 +14944,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42614</v>
       </c>
@@ -14968,7 +14970,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>409</v>
@@ -14987,7 +14989,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>493</v>
@@ -15004,7 +15006,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>42644</v>
       </c>
@@ -15030,7 +15032,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>362</v>
@@ -15049,7 +15051,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>362</v>
@@ -15066,7 +15068,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>107</v>
@@ -15083,7 +15085,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>42675</v>
       </c>
@@ -15107,7 +15109,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42705</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>494</v>
@@ -15150,7 +15152,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="48" t="s">
         <v>492</v>
       </c>
@@ -15168,7 +15170,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>42736</v>
       </c>
@@ -15192,7 +15194,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>500</v>
@@ -15209,7 +15211,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>42767</v>
       </c>
@@ -15235,7 +15237,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>501</v>
@@ -15252,7 +15254,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>42795</v>
       </c>
@@ -15276,7 +15278,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>42826</v>
       </c>
@@ -15300,7 +15302,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42856</v>
       </c>
@@ -15326,7 +15328,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42887</v>
       </c>
@@ -15346,7 +15348,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>42917</v>
       </c>
@@ -15366,7 +15368,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42948</v>
       </c>
@@ -15390,7 +15392,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>67</v>
@@ -15407,7 +15409,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>506</v>
@@ -15424,7 +15426,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42979</v>
       </c>
@@ -15448,7 +15450,7 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>362</v>
@@ -15465,7 +15467,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>507</v>
@@ -15484,7 +15486,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>508</v>
@@ -15501,7 +15503,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>43009</v>
       </c>
@@ -15525,7 +15527,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43040</v>
       </c>
@@ -15549,7 +15551,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43070</v>
       </c>
@@ -15573,7 +15575,7 @@
         <v>43051</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="48" t="s">
         <v>512</v>
       </c>
@@ -15591,7 +15593,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43101</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>379</v>
@@ -15632,7 +15634,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43132</v>
       </c>
@@ -15652,7 +15654,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43160</v>
       </c>
@@ -15672,7 +15674,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43191</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>82</v>
@@ -15715,7 +15717,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43221</v>
       </c>
@@ -15739,7 +15741,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>362</v>
@@ -15756,7 +15758,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43252</v>
       </c>
@@ -15780,7 +15782,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>409</v>
@@ -15797,7 +15799,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>362</v>
@@ -15814,7 +15816,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43282</v>
       </c>
@@ -15834,7 +15836,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43313</v>
       </c>
@@ -15858,7 +15860,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>409</v>
@@ -15875,7 +15877,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43344</v>
       </c>
@@ -15895,7 +15897,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>43374</v>
       </c>
@@ -15915,7 +15917,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43405</v>
       </c>
@@ -15941,7 +15943,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43435</v>
       </c>
@@ -15965,7 +15967,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="48" t="s">
         <v>523</v>
       </c>
@@ -15983,7 +15985,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43466</v>
       </c>
@@ -16007,7 +16009,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>379</v>
@@ -16024,7 +16026,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43497</v>
       </c>
@@ -16050,7 +16052,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43525</v>
       </c>
@@ -16070,7 +16072,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43556</v>
       </c>
@@ -16096,7 +16098,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43586</v>
       </c>
@@ -16116,7 +16118,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43617</v>
       </c>
@@ -16136,7 +16138,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43647</v>
       </c>
@@ -16156,7 +16158,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43678</v>
       </c>
@@ -16182,7 +16184,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>362</v>
@@ -16201,7 +16203,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>362</v>
@@ -16220,7 +16222,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43709</v>
       </c>
@@ -16240,7 +16242,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43739</v>
       </c>
@@ -16260,7 +16262,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>43770</v>
       </c>
@@ -16284,7 +16286,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>367</v>
@@ -16303,7 +16305,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43800</v>
       </c>
@@ -16329,7 +16331,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>67</v>
@@ -16351,7 +16353,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="48" t="s">
         <v>534</v>
       </c>
@@ -16369,7 +16371,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43831</v>
       </c>
@@ -16393,7 +16395,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43862</v>
       </c>
@@ -16413,7 +16415,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43891</v>
       </c>
@@ -16433,7 +16435,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43922</v>
       </c>
@@ -16453,7 +16455,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43952</v>
       </c>
@@ -16473,7 +16475,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43983</v>
       </c>
@@ -16493,7 +16495,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44013</v>
       </c>
@@ -16515,7 +16517,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44044</v>
       </c>
@@ -16535,7 +16537,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>44075</v>
       </c>
@@ -16555,7 +16557,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44105</v>
       </c>
@@ -16575,7 +16577,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44136</v>
       </c>
@@ -16595,7 +16597,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>44166</v>
       </c>
@@ -16619,7 +16621,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="48" t="s">
         <v>537</v>
       </c>
@@ -16637,7 +16639,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>44197</v>
       </c>
@@ -16657,7 +16659,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44228</v>
       </c>
@@ -16677,7 +16679,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44256</v>
       </c>
@@ -16697,7 +16699,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44287</v>
       </c>
@@ -16717,7 +16719,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44317</v>
       </c>
@@ -16737,7 +16739,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44348</v>
       </c>
@@ -16757,7 +16759,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44378</v>
       </c>
@@ -16777,7 +16779,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44409</v>
       </c>
@@ -16797,7 +16799,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>44440</v>
       </c>
@@ -16817,7 +16819,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44470</v>
       </c>
@@ -16837,7 +16839,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44501</v>
       </c>
@@ -16857,7 +16859,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44531</v>
       </c>
@@ -16881,7 +16883,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="48" t="s">
         <v>538</v>
       </c>
@@ -16899,7 +16901,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44562</v>
       </c>
@@ -16919,7 +16921,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44593</v>
       </c>
@@ -16939,7 +16941,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44621</v>
       </c>
@@ -16963,7 +16965,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>549</v>
@@ -16985,7 +16987,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>465</v>
@@ -17004,7 +17006,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>551</v>
@@ -17024,7 +17026,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44652</v>
       </c>
@@ -17048,7 +17050,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44682</v>
       </c>
@@ -17072,7 +17074,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44713</v>
       </c>
@@ -17096,7 +17098,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>379</v>
@@ -17113,7 +17115,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>367</v>
@@ -17132,7 +17134,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>514</v>
@@ -17151,7 +17153,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>551</v>
@@ -17171,7 +17173,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44743</v>
       </c>
@@ -17195,7 +17197,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44774</v>
       </c>
@@ -17221,7 +17223,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>129</v>
@@ -17241,7 +17243,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="49"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44805</v>
       </c>
@@ -17267,7 +17269,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>202</v>
@@ -17287,7 +17289,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="49"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44835</v>
       </c>
@@ -17311,7 +17313,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44866</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>154</v>
@@ -17357,7 +17359,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="49"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44896</v>
       </c>
@@ -17383,7 +17385,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>550</v>
@@ -17403,7 +17405,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="49"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="48" t="s">
         <v>544</v>
       </c>
@@ -17421,7 +17423,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>44957</v>
       </c>
@@ -17447,7 +17449,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44985</v>
       </c>
@@ -17473,7 +17475,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45016</v>
       </c>
@@ -17493,7 +17495,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45046</v>
       </c>
@@ -17513,7 +17515,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>45077</v>
       </c>
@@ -17533,7 +17535,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>45107</v>
       </c>
@@ -17559,7 +17561,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45138</v>
       </c>
@@ -17583,7 +17585,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45169</v>
       </c>
@@ -17603,7 +17605,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45199</v>
       </c>
@@ -17629,7 +17631,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>45230</v>
       </c>
@@ -17649,7 +17651,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>45260</v>
       </c>
@@ -17669,7 +17671,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45291</v>
       </c>
@@ -17689,7 +17691,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="48" t="s">
         <v>562</v>
       </c>
@@ -17707,7 +17709,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45322</v>
       </c>
@@ -17727,7 +17729,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45351</v>
       </c>
@@ -17747,7 +17749,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45382</v>
       </c>
@@ -17767,7 +17769,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45412</v>
       </c>
@@ -17787,7 +17789,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45443</v>
       </c>
@@ -17807,7 +17809,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45473</v>
       </c>
@@ -17827,7 +17829,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45504</v>
       </c>
@@ -17847,7 +17849,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45535</v>
       </c>
@@ -17867,7 +17869,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>45565</v>
       </c>
@@ -17887,11 +17889,13 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>45596</v>
       </c>
-      <c r="B684" s="20"/>
+      <c r="B684" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="C684" s="13">
         <v>1.25</v>
       </c>
@@ -17902,32 +17906,31 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H684" s="39"/>
+      <c r="H684" s="39">
+        <v>3</v>
+      </c>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
-      <c r="K684" s="20"/>
-    </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K684" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45616</v>
       </c>
       <c r="B685" s="20"/>
-      <c r="C685" s="13">
-        <v>0.87500000000000022</v>
-      </c>
+      <c r="C685" s="13"/>
       <c r="D685" s="39"/>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.87500000000000022</v>
-      </c>
+      <c r="G685" s="42"/>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17943,7 +17946,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17959,7 +17962,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17975,7 +17978,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17991,7 +17994,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18007,7 +18010,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18023,7 +18026,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18039,7 +18042,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18055,7 +18058,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18071,7 +18074,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18087,7 +18090,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18103,7 +18106,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18119,7 +18122,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18135,7 +18138,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18151,7 +18154,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18167,7 +18170,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18183,7 +18186,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18199,7 +18202,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18215,7 +18218,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18231,7 +18234,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18247,7 +18250,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18263,7 +18266,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18279,7 +18282,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18295,7 +18298,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18311,7 +18314,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18327,7 +18330,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18343,7 +18346,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18359,7 +18362,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18375,7 +18378,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18391,7 +18394,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18407,7 +18410,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18423,7 +18426,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18439,7 +18442,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="41"/>
       <c r="B718" s="15"/>
       <c r="C718" s="42"/>
@@ -18470,10 +18473,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18496,28 +18499,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -18530,7 +18533,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18559,7 +18562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18585,17 +18588,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>559</v>
       </c>
@@ -18619,10 +18622,10 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>431.95390000000003</v>
+        <v>427.20390000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -18650,7 +18653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18676,7 +18679,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18702,7 +18705,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18728,7 +18731,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18754,7 +18757,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18806,7 +18809,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18852,7 +18855,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18892,7 +18895,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18913,7 +18916,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18934,7 +18937,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18955,7 +18958,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18997,7 +19000,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19039,7 +19042,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19081,7 +19084,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19102,7 +19105,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19123,7 +19126,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19144,7 +19147,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19165,7 +19168,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19207,7 +19210,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19228,7 +19231,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19249,7 +19252,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19291,7 +19294,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19312,7 +19315,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19321,7 +19324,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19330,7 +19333,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19339,7 +19342,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19348,7 +19351,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19357,7 +19360,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19366,7 +19369,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19375,7 +19378,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19384,7 +19387,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19393,7 +19396,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19402,7 +19405,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19411,7 +19414,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19420,7 +19423,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19429,7 +19432,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19438,7 +19441,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19447,7 +19450,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19456,7 +19459,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19465,7 +19468,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19474,7 +19477,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19483,7 +19486,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19492,7 +19495,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19501,7 +19504,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19510,7 +19513,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19519,7 +19522,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19528,7 +19531,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19537,7 +19540,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19546,7 +19549,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19555,7 +19558,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19564,7 +19567,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19573,7 +19576,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
